--- a/biology/Médecine/1800_en_santé_et_médecine/1800_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1800_en_santé_et_médecine/1800_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1800_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1800_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1800 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1800_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1800_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Angleterre
-Sir Humphry Davy annonce les propriétés anesthésiques de l'oxyde nitreux[1].
-À Londres, l'Union des Chirurgiens (Company of Surgeons), obtient une charte royale et devient The Royal College of Surgeons in London[2].
+Sir Humphry Davy annonce les propriétés anesthésiques de l'oxyde nitreux.
+À Londres, l'Union des Chirurgiens (Company of Surgeons), obtient une charte royale et devient The Royal College of Surgeons in London.
 Canada
-2 juin 1800 : premières vaccinations anti-varioliques au Canada par John Clinch (en), élève d'Edward Jenner[3].
+2 juin 1800 : premières vaccinations anti-varioliques au Canada par John Clinch (en), élève d'Edward Jenner.
 France
-En juin 1800, premières vaccinations antivarioliques en France[4].
-Le 6 novembre 1800, Chaptal est nommé Ministre de l'Intérieur par Napoléon Bonaparte[5].
-Parmentier est nommé « Premier pharmacien des armées » et membre du Conseil de santé par Bonaparte[4].</t>
+En juin 1800, premières vaccinations antivarioliques en France.
+Le 6 novembre 1800, Chaptal est nommé Ministre de l'Intérieur par Napoléon Bonaparte.
+Parmentier est nommé « Premier pharmacien des armées » et membre du Conseil de santé par Bonaparte.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1800_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1800_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Publications importantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Georges Cuvier commence la publication de ses Leçons d'anatomie comparée (5 volumes, 1800-1805)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Georges Cuvier commence la publication de ses Leçons d'anatomie comparée (5 volumes, 1800-1805).
 Andrea Vaccà Berlinghieri (it) publie un Traité des maladies vénériennes, Moutardier, 1800, 302 p. (lire en ligne).</t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1800_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1800_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er janvier : Constantin Hering (mort en 1880), médecin allemand émigré aux États-Unis, pionnier de l'homéopathie dans ce pays.
 4 janvier : Luigi Porta (mort en 1875), médecin, anatomiste et homme politique italien.
@@ -589,10 +607,10 @@
 4 mars : William Price, (mort en 1893), médecin gallois.
 16 avril : Jakob Heine (mort en 1879), orthopédiste allemand.
 23 juin : Karol Marcinkowski (en) (mort en 1846), médecin polonais.
-14 juillet : Jean-Baptiste Dumas (mort en 1884), pharmacien, chimiste et homme politique français[7].
+14 juillet : Jean-Baptiste Dumas (mort en 1884), pharmacien, chimiste et homme politique français.
 22 juillet : Robert McCormick (mort en 1890), chirurgien militaire (Marine), explorateur et naturaliste anglais.
 25 juillet : Johann Heinrich Robert Göppert (mort en 1884), médecin puis botaniste et paléontologue allemand.
-26 août : Félix Archimède Pouchet (mort en 1872), médecin biologiste français, adversaire des thèses de Louis Pasteur[8].
+26 août : Félix Archimède Pouchet (mort en 1872), médecin biologiste français, adversaire des thèses de Louis Pasteur.
 1er septembre : Giuseppe Gabriel Balsamo-Crivelli (mort en 1874),  médecin et naturaliste italien.
 21 octobre : Jean-Baptiste-Maximien Parchappe de Vinay (mort en 1866), psychiatre français.
 23 octobre : Henri Milne Edwards (mort en 1885), médecin et zoologiste français.
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1800_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1800_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7 septembre : François-Hilaire Gilbert (né en 1757), vétérinaire français.
 10 septembre : Johann David Schoepff (né en 1752), zoologiste, botaniste et médecin allemand.
@@ -637,7 +657,7 @@
 30 décembre : Thomas Dimsdale (en) (né en 1712), médecin anglais.
 31 décembre : Louis Jean-Marie D’Aubenton, dit Daubenton, (né en 1716), naturaliste et médecin français.
 Sans date
-Jean-Gaspard Ailhaud ou d'Ailhaud, fils de Jean d'Ailhaud « qui continua le métier de son père, augmenta ses richesses, acheta des titres et des honneurs[9]. »</t>
+Jean-Gaspard Ailhaud ou d'Ailhaud, fils de Jean d'Ailhaud « qui continua le métier de son père, augmenta ses richesses, acheta des titres et des honneurs. »</t>
         </is>
       </c>
     </row>
